--- a/CE06ISSM/Omaha_Cal_Info_CE06ISSM_00003.xlsx
+++ b/CE06ISSM/Omaha_Cal_Info_CE06ISSM_00003.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\Ingest sheets\ingestion-csvs\CE06ISSM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="766"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="766" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,7 @@
     <sheet name="ACS259_CC_taarray" sheetId="8" r:id="rId3"/>
     <sheet name="ACS259_CC_tcarray" sheetId="9" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -499,9 +504,6 @@
     <t>CE06ISSM-MFD00-00-CAMDSA000</t>
   </si>
   <si>
-    <t>CE06ISSM-MFD37-00-ZPLSCC000</t>
-  </si>
-  <si>
     <t>16-50150</t>
   </si>
   <si>
@@ -588,6 +590,9 @@
   </si>
   <si>
     <t>124° 16.2550' W</t>
+  </si>
+  <si>
+    <t>CE06ISSM-MFD37-07-ZPLSCC000</t>
   </si>
 </sst>
 </file>
@@ -1500,6 +1505,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1547,7 +1555,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1582,7 +1590,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1793,8 +1801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1874,10 +1882,10 @@
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>182</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>183</v>
       </c>
       <c r="I2" s="18">
         <v>29</v>
@@ -1903,20 +1911,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK226"/>
   <sheetViews>
-    <sheetView topLeftCell="A180" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F199" sqref="F199"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.42578125" style="24" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="24" customWidth="1"/>
-    <col min="4" max="4" width="22" style="24" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" style="36" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" style="24" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="18" style="24" customWidth="1"/>
+    <col min="6" max="6" width="17" style="36" customWidth="1"/>
     <col min="7" max="7" width="27.42578125" style="24" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" style="24" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="24" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="24"/>
     <col min="11" max="11" width="12.5703125" style="24" customWidth="1"/>
@@ -2972,732 +2980,732 @@
       <c r="AMJ2"/>
     </row>
     <row r="3" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="H3" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="I3" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="24">
+      <c r="J3" s="24">
         <v>3</v>
       </c>
-      <c r="D3" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="E3" s="24" t="s">
+      <c r="K3" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="L3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="47">
+      <c r="M3" s="47">
         <v>47.133266999999996</v>
       </c>
-      <c r="G3" s="27"/>
+      <c r="N3" s="27"/>
     </row>
     <row r="4" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="H4" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="I4" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="24">
+      <c r="J4" s="24">
         <v>3</v>
       </c>
-      <c r="D4" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="E4" s="24" t="s">
+      <c r="K4" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="L4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="47">
+      <c r="M4" s="47">
         <v>-124.270917</v>
       </c>
-      <c r="G4" s="27"/>
+      <c r="N4" s="27"/>
     </row>
     <row r="5" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="H5" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="I5" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="24">
+      <c r="J5" s="24">
         <v>3</v>
       </c>
-      <c r="D5" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="E5" s="24" t="s">
+      <c r="K5" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="L5" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="48">
+      <c r="M5" s="48">
         <v>1.21059323E-3</v>
       </c>
-      <c r="G5" s="28"/>
+      <c r="N5" s="28"/>
     </row>
     <row r="6" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="H6" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="I6" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="24">
+      <c r="J6" s="24">
         <v>3</v>
       </c>
-      <c r="D6" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="E6" s="24" t="s">
+      <c r="K6" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="L6" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="48">
+      <c r="M6" s="48">
         <v>2.8481035700000002E-4</v>
       </c>
-      <c r="G6" s="29"/>
+      <c r="N6" s="29"/>
     </row>
     <row r="7" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="H7" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="I7" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="24">
+      <c r="J7" s="24">
         <v>3</v>
       </c>
-      <c r="D7" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="E7" s="24" t="s">
+      <c r="K7" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="L7" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="48">
+      <c r="M7" s="48">
         <v>-2.1758474099999998E-6</v>
       </c>
-      <c r="G7" s="28"/>
+      <c r="N7" s="28"/>
     </row>
     <row r="8" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="H8" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="I8" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="24">
+      <c r="J8" s="24">
         <v>3</v>
       </c>
-      <c r="D8" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="E8" s="24" t="s">
+      <c r="K8" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="L8" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="48">
+      <c r="M8" s="48">
         <v>2.29626898E-7</v>
       </c>
-      <c r="G8" s="30"/>
+      <c r="N8" s="30"/>
     </row>
     <row r="9" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="H9" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="I9" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="24">
+      <c r="J9" s="24">
         <v>3</v>
       </c>
-      <c r="D9" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="E9" s="24" t="s">
+      <c r="K9" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="L9" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="48">
+      <c r="M9" s="48">
         <v>101.261408</v>
       </c>
-      <c r="G9"/>
+      <c r="N9"/>
     </row>
     <row r="10" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="H10" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="I10" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="24">
+      <c r="J10" s="24">
         <v>3</v>
       </c>
-      <c r="D10" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="E10" s="24" t="s">
+      <c r="K10" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="L10" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="48">
+      <c r="M10" s="48">
         <v>-41.7521238</v>
       </c>
-      <c r="G10"/>
+      <c r="N10"/>
     </row>
     <row r="11" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="H11" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="I11" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="24">
+      <c r="J11" s="24">
         <v>3</v>
       </c>
-      <c r="D11" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="E11" s="24" t="s">
+      <c r="K11" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="L11" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="48">
+      <c r="M11" s="48">
         <v>-1.19072143</v>
       </c>
-      <c r="G11"/>
+      <c r="N11"/>
     </row>
     <row r="12" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="H12" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="I12" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="24">
+      <c r="J12" s="24">
         <v>3</v>
       </c>
-      <c r="D12" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="E12" s="24" t="s">
+      <c r="K12" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="L12" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="48">
+      <c r="M12" s="48">
         <v>518916.52299999999</v>
       </c>
-      <c r="G12"/>
+      <c r="N12"/>
     </row>
     <row r="13" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="H13" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="I13" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="24">
+      <c r="J13" s="24">
         <v>3</v>
       </c>
-      <c r="D13" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="E13" s="24" t="s">
+      <c r="K13" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="L13" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="48">
+      <c r="M13" s="48">
         <v>-156.07004599999999</v>
       </c>
-      <c r="G13"/>
+      <c r="N13"/>
     </row>
     <row r="14" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="H14" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="I14" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C14" s="24">
+      <c r="J14" s="24">
         <v>3</v>
       </c>
-      <c r="D14" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="E14" s="24" t="s">
+      <c r="K14" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="L14" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="48">
+      <c r="M14" s="48">
         <v>-1.4203462899999999</v>
       </c>
-      <c r="G14"/>
+      <c r="N14"/>
     </row>
     <row r="15" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="H15" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="I15" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="24">
+      <c r="J15" s="24">
         <v>3</v>
       </c>
-      <c r="D15" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="E15" s="24" t="s">
+      <c r="K15" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="L15" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="48">
+      <c r="M15" s="48">
         <v>25.026875</v>
       </c>
-      <c r="G15"/>
+      <c r="N15"/>
     </row>
     <row r="16" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="H16" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="I16" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="24">
+      <c r="J16" s="24">
         <v>3</v>
       </c>
-      <c r="D16" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="E16" s="24" t="s">
+      <c r="K16" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="L16" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="48">
+      <c r="M16" s="48">
         <v>7.7499999999999997E-4</v>
       </c>
-      <c r="G16"/>
+      <c r="N16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+    <row r="17" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H17" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="I17" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="24">
+      <c r="J17" s="24">
         <v>3</v>
       </c>
-      <c r="D17" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="E17" s="24" t="s">
+      <c r="K17" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="L17" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="48">
+      <c r="M17" s="48">
         <v>0</v>
       </c>
-      <c r="G17"/>
+      <c r="N17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+    <row r="18" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H18" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="I18" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C18" s="24">
+      <c r="J18" s="24">
         <v>3</v>
       </c>
-      <c r="D18" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="E18" s="24" t="s">
+      <c r="K18" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="L18" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="48">
+      <c r="M18" s="48">
         <v>-2.6785821699999999</v>
       </c>
-      <c r="G18"/>
+      <c r="N18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+    <row r="19" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H19" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="I19" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C19" s="24">
+      <c r="J19" s="24">
         <v>3</v>
       </c>
-      <c r="D19" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="E19" s="24" t="s">
+      <c r="K19" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="L19" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="48">
+      <c r="M19" s="48">
         <v>6.2104943900000002E-4</v>
       </c>
-      <c r="G19"/>
+      <c r="N19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+    <row r="20" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H20" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="I20" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C20" s="24">
+      <c r="J20" s="24">
         <v>3</v>
       </c>
-      <c r="D20" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="E20" s="24" t="s">
+      <c r="K20" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="L20" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="48">
+      <c r="M20" s="48">
         <v>8.9875144600000006E-12</v>
       </c>
-      <c r="G20"/>
+      <c r="N20"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+    <row r="21" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H21" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="I21" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C21" s="24">
+      <c r="J21" s="24">
         <v>3</v>
       </c>
-      <c r="D21" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="E21" s="24" t="s">
+      <c r="K21" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="L21" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="48">
+      <c r="M21" s="48">
         <v>-0.97856695599999999</v>
       </c>
-      <c r="G21"/>
+      <c r="N21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+    <row r="22" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H22" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="I22" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="24">
+      <c r="J22" s="24">
         <v>3</v>
       </c>
-      <c r="D22" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="E22" s="24" t="s">
+      <c r="K22" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="L22" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="48">
+      <c r="M22" s="48">
         <v>0.15168742700000001</v>
       </c>
-      <c r="G22"/>
+      <c r="N22"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+    <row r="23" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H23" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="I23" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C23" s="24">
+      <c r="J23" s="24">
         <v>3</v>
       </c>
-      <c r="D23" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="E23" s="24" t="s">
+      <c r="K23" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="L23" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="48">
+      <c r="M23" s="48">
         <v>-1.15940192E-4</v>
       </c>
-      <c r="G23"/>
+      <c r="N23"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
+    <row r="24" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H24" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="I24" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C24" s="24">
+      <c r="J24" s="24">
         <v>3</v>
       </c>
-      <c r="D24" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="E24" s="24" t="s">
+      <c r="K24" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="L24" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="48">
+      <c r="M24" s="48">
         <v>3.1292238999999998E-5</v>
       </c>
-      <c r="G24"/>
+      <c r="N24"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
+    <row r="25" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H25" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="I25" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="24">
+      <c r="J25" s="24">
         <v>3</v>
       </c>
-      <c r="D25" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="E25" s="24" t="s">
+      <c r="K25" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="L25" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="48">
+      <c r="M25" s="48">
         <v>-9.5700000000000003E-8</v>
       </c>
-      <c r="G25"/>
+      <c r="N25"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+    <row r="26" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H26" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="I26" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C26" s="24">
+      <c r="J26" s="24">
         <v>3</v>
       </c>
-      <c r="D26" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="E26" s="24" t="s">
+      <c r="K26" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="L26" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F26" s="48">
+      <c r="M26" s="48">
         <v>3.2499999999999998E-6</v>
       </c>
-      <c r="G26"/>
+      <c r="N26"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="F27" s="25"/>
-      <c r="G27"/>
+    <row r="27" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="M27" s="25"/>
+      <c r="N27"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+    <row r="28" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H28" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="I28" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C28" s="24">
+      <c r="J28" s="24">
         <v>3</v>
       </c>
-      <c r="D28" s="46">
+      <c r="K28" s="46">
         <v>996</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="L28" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="49">
+      <c r="M28" s="49">
         <v>47</v>
       </c>
-      <c r="G28"/>
+      <c r="N28"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
+    <row r="29" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H29" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="I29" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C29" s="24">
+      <c r="J29" s="24">
         <v>3</v>
       </c>
-      <c r="D29" s="46">
+      <c r="K29" s="46">
         <v>996</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="L29" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="49">
+      <c r="M29" s="49">
         <v>1.734E-6</v>
       </c>
-      <c r="G29"/>
+      <c r="N29"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
+    <row r="30" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H30" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="I30" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C30" s="24">
+      <c r="J30" s="24">
         <v>3</v>
       </c>
-      <c r="D30" s="46">
+      <c r="K30" s="46">
         <v>996</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="L30" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="49">
+      <c r="M30" s="49">
         <v>49</v>
       </c>
-      <c r="G30"/>
+      <c r="N30"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
+    <row r="31" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H31" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="I31" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="24">
+      <c r="J31" s="24">
         <v>3</v>
       </c>
-      <c r="D31" s="46">
+      <c r="K31" s="46">
         <v>996</v>
       </c>
-      <c r="E31" s="24" t="s">
+      <c r="L31" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="49">
+      <c r="M31" s="49">
         <v>1.17E-2</v>
       </c>
-      <c r="G31"/>
+      <c r="N31"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
+    <row r="32" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H32" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="I32" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C32" s="24">
+      <c r="J32" s="24">
         <v>3</v>
       </c>
-      <c r="D32" s="46">
+      <c r="K32" s="46">
         <v>996</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="L32" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="49">
+      <c r="M32" s="49">
         <v>44</v>
       </c>
-      <c r="G32"/>
+      <c r="N32"/>
     </row>
     <row r="33" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
+      <c r="H33" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="I33" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C33" s="24">
+      <c r="J33" s="24">
         <v>3</v>
       </c>
-      <c r="D33" s="46">
+      <c r="K33" s="46">
         <v>996</v>
       </c>
-      <c r="E33" s="24" t="s">
+      <c r="L33" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="F33" s="49">
+      <c r="M33" s="49">
         <v>8.2500000000000004E-2</v>
       </c>
-      <c r="G33"/>
+      <c r="N33"/>
     </row>
     <row r="34" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A34" s="24" t="s">
+      <c r="H34" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="I34" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C34" s="24">
+      <c r="J34" s="24">
         <v>3</v>
       </c>
-      <c r="D34" s="46">
+      <c r="K34" s="46">
         <v>996</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="L34" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="F34" s="49">
+      <c r="M34" s="49">
         <v>124</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="N34" s="24" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A35" s="24" t="s">
+      <c r="H35" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="I35" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C35" s="24">
+      <c r="J35" s="24">
         <v>3</v>
       </c>
-      <c r="D35" s="46">
+      <c r="K35" s="46">
         <v>996</v>
       </c>
-      <c r="E35" s="24" t="s">
+      <c r="L35" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="49">
+      <c r="M35" s="49">
         <v>700</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="N35" s="24" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
+      <c r="H36" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="I36" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="24">
+      <c r="J36" s="24">
         <v>3</v>
       </c>
-      <c r="D36" s="46">
+      <c r="K36" s="46">
         <v>996</v>
       </c>
-      <c r="E36" s="24" t="s">
+      <c r="L36" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="49">
+      <c r="M36" s="49">
         <v>1.0760000000000001</v>
       </c>
-      <c r="G36" s="24" t="s">
+      <c r="N36" s="24" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A37" s="24" t="s">
+      <c r="H37" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="I37" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C37" s="24">
+      <c r="J37" s="24">
         <v>3</v>
       </c>
-      <c r="D37" s="46">
+      <c r="K37" s="46">
         <v>996</v>
       </c>
-      <c r="E37" s="24" t="s">
+      <c r="L37" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="F37" s="49">
+      <c r="M37" s="49">
         <v>3.9E-2</v>
       </c>
-      <c r="G37" s="24" t="s">
+      <c r="N37" s="24" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3726,7 +3734,6 @@
       </c>
       <c r="H39"/>
       <c r="I39"/>
-      <c r="J39"/>
       <c r="K39"/>
       <c r="L39"/>
       <c r="M39"/>
@@ -4751,7 +4758,6 @@
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
-      <c r="J40"/>
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40"/>
@@ -5789,7 +5795,6 @@
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41"/>
-      <c r="J41"/>
       <c r="K41"/>
       <c r="L41"/>
       <c r="M41"/>
@@ -6827,7 +6832,6 @@
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42"/>
-      <c r="J42"/>
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42"/>
@@ -7852,7 +7856,6 @@
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43"/>
-      <c r="J43"/>
       <c r="K43"/>
       <c r="L43"/>
       <c r="M43"/>
@@ -8879,7 +8882,7 @@
         <v>3</v>
       </c>
       <c r="D44" s="46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E44" s="24" t="s">
         <v>18</v>
@@ -8900,7 +8903,7 @@
         <v>3</v>
       </c>
       <c r="D45" s="46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E45" s="24" t="s">
         <v>19</v>
@@ -8921,7 +8924,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E46" s="24" t="s">
         <v>53</v>
@@ -8942,7 +8945,7 @@
         <v>3</v>
       </c>
       <c r="D47" s="46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E47" s="24" t="s">
         <v>54</v>
@@ -8963,7 +8966,7 @@
         <v>3</v>
       </c>
       <c r="D48" s="46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E48" s="24" t="s">
         <v>55</v>
@@ -8984,7 +8987,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E49" s="24" t="s">
         <v>56</v>
@@ -9005,7 +9008,7 @@
         <v>3</v>
       </c>
       <c r="D50" s="46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E50" s="24" t="s">
         <v>57</v>
@@ -9026,7 +9029,7 @@
         <v>3</v>
       </c>
       <c r="D51" s="46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E51" s="24" t="s">
         <v>58</v>
@@ -9047,7 +9050,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E52" s="24" t="s">
         <v>59</v>
@@ -9068,7 +9071,7 @@
         <v>3</v>
       </c>
       <c r="D53" s="46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E53" s="24" t="s">
         <v>60</v>
@@ -9089,7 +9092,7 @@
         <v>3</v>
       </c>
       <c r="D54" s="46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E54" s="24" t="s">
         <v>61</v>
@@ -9110,7 +9113,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E55" s="24" t="s">
         <v>62</v>
@@ -9131,7 +9134,7 @@
         <v>3</v>
       </c>
       <c r="D56" s="46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E56" s="24" t="s">
         <v>63</v>
@@ -9152,7 +9155,7 @@
         <v>3</v>
       </c>
       <c r="D57" s="46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E57" s="24" t="s">
         <v>64</v>
@@ -9173,7 +9176,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E58" s="24" t="s">
         <v>65</v>
@@ -9194,7 +9197,7 @@
         <v>3</v>
       </c>
       <c r="D59" s="46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E59" s="24" t="s">
         <v>66</v>
@@ -9215,7 +9218,7 @@
         <v>3</v>
       </c>
       <c r="D60" s="46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E60" s="24" t="s">
         <v>67</v>
@@ -9236,7 +9239,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E61" s="24" t="s">
         <v>68</v>
@@ -9257,7 +9260,7 @@
         <v>3</v>
       </c>
       <c r="D62" s="46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E62" s="24" t="s">
         <v>69</v>
@@ -9278,7 +9281,7 @@
         <v>3</v>
       </c>
       <c r="D63" s="46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E63" s="24" t="s">
         <v>70</v>
@@ -9299,7 +9302,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E64" s="24" t="s">
         <v>71</v>
@@ -9309,7 +9312,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="24" t="s">
         <v>52</v>
       </c>
@@ -9320,7 +9323,7 @@
         <v>3</v>
       </c>
       <c r="D65" s="46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E65" s="24" t="s">
         <v>72</v>
@@ -9330,7 +9333,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="24" t="s">
         <v>52</v>
       </c>
@@ -9341,7 +9344,7 @@
         <v>3</v>
       </c>
       <c r="D66" s="46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E66" s="24" t="s">
         <v>73</v>
@@ -9351,7 +9354,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="24" t="s">
         <v>52</v>
       </c>
@@ -9362,7 +9365,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E67" s="24" t="s">
         <v>74</v>
@@ -9372,7 +9375,7 @@
       </c>
       <c r="G67"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
@@ -9380,7 +9383,7 @@
       <c r="F68" s="25"/>
       <c r="G68"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="24" t="s">
         <v>76</v>
       </c>
@@ -9401,7 +9404,7 @@
       </c>
       <c r="G69"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="24" t="s">
         <v>76</v>
       </c>
@@ -9422,7 +9425,7 @@
       </c>
       <c r="G70"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="24" t="s">
         <v>76</v>
       </c>
@@ -9439,11 +9442,11 @@
         <v>77</v>
       </c>
       <c r="F71" s="49" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G71"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="24" t="s">
         <v>76</v>
       </c>
@@ -9466,7 +9469,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
@@ -9474,7 +9477,7 @@
       <c r="F73" s="25"/>
       <c r="G73"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="24" t="s">
         <v>41</v>
       </c>
@@ -9495,7 +9498,7 @@
       </c>
       <c r="G74"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="24" t="s">
         <v>41</v>
       </c>
@@ -9515,8 +9518,9 @@
         <v>1.7400000000000001E-6</v>
       </c>
       <c r="G75"/>
+      <c r="J75"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="24" t="s">
         <v>41</v>
       </c>
@@ -9536,8 +9540,9 @@
         <v>50</v>
       </c>
       <c r="G76"/>
+      <c r="J76"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="24" t="s">
         <v>41</v>
       </c>
@@ -9558,7 +9563,7 @@
       </c>
       <c r="G77"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="24" t="s">
         <v>41</v>
       </c>
@@ -9579,7 +9584,7 @@
       </c>
       <c r="G78"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="24" t="s">
         <v>41</v>
       </c>
@@ -9600,7 +9605,7 @@
       </c>
       <c r="G79"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="24" t="s">
         <v>41</v>
       </c>
@@ -9784,7 +9789,7 @@
         <v>83</v>
       </c>
       <c r="F88" s="53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G88"/>
     </row>
@@ -9805,7 +9810,7 @@
         <v>84</v>
       </c>
       <c r="F89" s="53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G89"/>
     </row>
@@ -9826,7 +9831,7 @@
         <v>85</v>
       </c>
       <c r="F90" s="53" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G90"/>
     </row>
@@ -9847,7 +9852,7 @@
         <v>86</v>
       </c>
       <c r="F91" s="53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G91"/>
     </row>
@@ -9876,12 +9881,11 @@
         <v>32</v>
       </c>
       <c r="F93" s="54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G93"/>
       <c r="H93"/>
       <c r="I93"/>
-      <c r="J93"/>
       <c r="K93"/>
       <c r="L93"/>
       <c r="M93"/>
@@ -10914,12 +10918,11 @@
         <v>33</v>
       </c>
       <c r="F94" s="54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G94"/>
       <c r="H94"/>
       <c r="I94"/>
-      <c r="J94"/>
       <c r="K94"/>
       <c r="L94"/>
       <c r="M94"/>
@@ -11957,7 +11960,6 @@
       <c r="G95"/>
       <c r="H95"/>
       <c r="I95"/>
-      <c r="J95"/>
       <c r="K95"/>
       <c r="L95"/>
       <c r="M95"/>
@@ -12990,7 +12992,7 @@
         <v>35</v>
       </c>
       <c r="F96" s="54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G96"/>
       <c r="H96"/>
@@ -14028,7 +14030,7 @@
         <v>36</v>
       </c>
       <c r="F97" s="54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G97"/>
       <c r="H97"/>
@@ -15066,7 +15068,7 @@
         <v>37</v>
       </c>
       <c r="F98" s="54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G98"/>
       <c r="H98"/>
@@ -16104,7 +16106,7 @@
         <v>38</v>
       </c>
       <c r="F99" s="54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G99"/>
       <c r="H99"/>
@@ -17142,7 +17144,7 @@
         <v>39</v>
       </c>
       <c r="F100" s="54" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="101" spans="1:1024" x14ac:dyDescent="0.25">
@@ -17164,7 +17166,7 @@
         <v>3</v>
       </c>
       <c r="D102" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E102" s="24" t="s">
         <v>118</v>
@@ -17185,7 +17187,7 @@
         <v>3</v>
       </c>
       <c r="D103" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E103" s="24" t="s">
         <v>119</v>
@@ -17194,6 +17196,7 @@
         <v>0.6905</v>
       </c>
       <c r="G103"/>
+      <c r="J103"/>
     </row>
     <row r="104" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A104" s="24" t="s">
@@ -17206,7 +17209,7 @@
         <v>3</v>
       </c>
       <c r="D104" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E104" s="24" t="s">
         <v>120</v>
@@ -17227,7 +17230,7 @@
         <v>3</v>
       </c>
       <c r="D105" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E105" s="24" t="s">
         <v>121</v>
@@ -17248,7 +17251,7 @@
         <v>3</v>
       </c>
       <c r="D106" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E106" s="24" t="s">
         <v>22</v>
@@ -17271,7 +17274,7 @@
         <v>3</v>
       </c>
       <c r="D107" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E107" s="24" t="s">
         <v>122</v>
@@ -17294,7 +17297,7 @@
         <v>3</v>
       </c>
       <c r="D108" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E108" s="24" t="s">
         <v>24</v>
@@ -17315,7 +17318,7 @@
         <v>3</v>
       </c>
       <c r="D109" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E109" s="24" t="s">
         <v>123</v>
@@ -17344,7 +17347,7 @@
         <v>3</v>
       </c>
       <c r="D111" s="46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E111" s="24" t="s">
         <v>22</v>
@@ -17355,7 +17358,6 @@
       <c r="G111"/>
       <c r="H111"/>
       <c r="I111"/>
-      <c r="J111"/>
       <c r="K111"/>
       <c r="L111"/>
       <c r="M111"/>
@@ -18382,7 +18384,7 @@
         <v>3</v>
       </c>
       <c r="D112" s="46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E112" s="24" t="s">
         <v>23</v>
@@ -18393,7 +18395,6 @@
       <c r="G112"/>
       <c r="H112"/>
       <c r="I112"/>
-      <c r="J112"/>
       <c r="K112"/>
       <c r="L112"/>
       <c r="M112"/>
@@ -19420,7 +19421,7 @@
         <v>3</v>
       </c>
       <c r="D113" s="46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E113" s="24" t="s">
         <v>24</v>
@@ -19431,7 +19432,6 @@
       <c r="G113"/>
       <c r="H113"/>
       <c r="I113"/>
-      <c r="J113"/>
       <c r="K113"/>
       <c r="L113"/>
       <c r="M113"/>
@@ -20458,7 +20458,7 @@
         <v>3</v>
       </c>
       <c r="D114" s="46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E114" s="24" t="s">
         <v>25</v>
@@ -20469,7 +20469,6 @@
       <c r="G114"/>
       <c r="H114"/>
       <c r="I114"/>
-      <c r="J114"/>
       <c r="K114"/>
       <c r="L114"/>
       <c r="M114"/>
@@ -21496,7 +21495,7 @@
         <v>3</v>
       </c>
       <c r="D115" s="46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E115" s="24" t="s">
         <v>26</v>
@@ -21507,7 +21506,6 @@
       <c r="G115"/>
       <c r="H115"/>
       <c r="I115"/>
-      <c r="J115"/>
       <c r="K115"/>
       <c r="L115"/>
       <c r="M115"/>
@@ -22534,7 +22532,7 @@
         <v>3</v>
       </c>
       <c r="D116" s="46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E116" s="24" t="s">
         <v>27</v>
@@ -22545,7 +22543,6 @@
       <c r="G116"/>
       <c r="H116"/>
       <c r="I116"/>
-      <c r="J116"/>
       <c r="K116"/>
       <c r="L116"/>
       <c r="M116"/>
@@ -23572,7 +23569,7 @@
         <v>3</v>
       </c>
       <c r="D117" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E117" s="27" t="s">
         <v>28</v>
@@ -23585,7 +23582,6 @@
       </c>
       <c r="H117"/>
       <c r="I117"/>
-      <c r="J117"/>
       <c r="K117"/>
       <c r="L117"/>
       <c r="M117"/>
@@ -24610,7 +24606,6 @@
       <c r="G118"/>
       <c r="H118"/>
       <c r="I118"/>
-      <c r="J118"/>
       <c r="K118"/>
       <c r="L118"/>
       <c r="M118"/>
@@ -25664,7 +25659,7 @@
         <v>89</v>
       </c>
       <c r="F120" s="56" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G120"/>
     </row>
@@ -25685,7 +25680,7 @@
         <v>90</v>
       </c>
       <c r="F121" s="56" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G121"/>
     </row>
@@ -28971,9 +28966,6 @@
       <c r="I134" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="J134" s="31">
-        <v>3</v>
-      </c>
       <c r="K134" s="37" t="s">
         <v>153</v>
       </c>
@@ -29000,7 +28992,7 @@
         <v>3</v>
       </c>
       <c r="D136" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E136" s="24" t="s">
         <v>18</v>
@@ -29021,7 +29013,7 @@
         <v>3</v>
       </c>
       <c r="D137" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E137" s="24" t="s">
         <v>19</v>
@@ -29042,7 +29034,7 @@
         <v>3</v>
       </c>
       <c r="D138" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E138" s="24" t="s">
         <v>53</v>
@@ -29063,7 +29055,7 @@
         <v>3</v>
       </c>
       <c r="D139" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E139" s="24" t="s">
         <v>54</v>
@@ -29084,7 +29076,7 @@
         <v>3</v>
       </c>
       <c r="D140" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E140" s="24" t="s">
         <v>55</v>
@@ -29105,7 +29097,7 @@
         <v>3</v>
       </c>
       <c r="D141" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E141" s="24" t="s">
         <v>56</v>
@@ -29126,7 +29118,7 @@
         <v>3</v>
       </c>
       <c r="D142" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E142" s="24" t="s">
         <v>57</v>
@@ -29147,7 +29139,7 @@
         <v>3</v>
       </c>
       <c r="D143" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E143" s="24" t="s">
         <v>58</v>
@@ -29168,7 +29160,7 @@
         <v>3</v>
       </c>
       <c r="D144" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E144" s="24" t="s">
         <v>59</v>
@@ -29189,7 +29181,7 @@
         <v>3</v>
       </c>
       <c r="D145" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E145" s="24" t="s">
         <v>60</v>
@@ -29210,7 +29202,7 @@
         <v>3</v>
       </c>
       <c r="D146" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E146" s="24" t="s">
         <v>61</v>
@@ -29231,7 +29223,7 @@
         <v>3</v>
       </c>
       <c r="D147" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E147" s="24" t="s">
         <v>62</v>
@@ -29252,7 +29244,7 @@
         <v>3</v>
       </c>
       <c r="D148" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E148" s="24" t="s">
         <v>63</v>
@@ -29273,7 +29265,7 @@
         <v>3</v>
       </c>
       <c r="D149" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E149" s="24" t="s">
         <v>64</v>
@@ -29294,7 +29286,7 @@
         <v>3</v>
       </c>
       <c r="D150" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E150" s="24" t="s">
         <v>65</v>
@@ -29315,7 +29307,7 @@
         <v>3</v>
       </c>
       <c r="D151" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E151" s="24" t="s">
         <v>66</v>
@@ -29336,7 +29328,7 @@
         <v>3</v>
       </c>
       <c r="D152" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E152" s="24" t="s">
         <v>67</v>
@@ -29357,7 +29349,7 @@
         <v>3</v>
       </c>
       <c r="D153" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E153" s="24" t="s">
         <v>68</v>
@@ -29378,7 +29370,7 @@
         <v>3</v>
       </c>
       <c r="D154" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E154" s="24" t="s">
         <v>69</v>
@@ -29399,7 +29391,7 @@
         <v>3</v>
       </c>
       <c r="D155" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E155" s="24" t="s">
         <v>70</v>
@@ -29420,7 +29412,7 @@
         <v>3</v>
       </c>
       <c r="D156" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E156" s="24" t="s">
         <v>71</v>
@@ -29441,7 +29433,7 @@
         <v>3</v>
       </c>
       <c r="D157" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E157" s="24" t="s">
         <v>72</v>
@@ -29462,7 +29454,7 @@
         <v>3</v>
       </c>
       <c r="D158" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E158" s="24" t="s">
         <v>73</v>
@@ -29483,7 +29475,7 @@
         <v>3</v>
       </c>
       <c r="D159" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E159" s="24" t="s">
         <v>74</v>
@@ -29560,7 +29552,7 @@
         <v>77</v>
       </c>
       <c r="F163" s="49" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G163"/>
     </row>
@@ -37152,7 +37144,7 @@
         <v>3</v>
       </c>
       <c r="D192" s="46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E192" s="24" t="s">
         <v>99</v>
@@ -37175,7 +37167,7 @@
         <v>3</v>
       </c>
       <c r="D193" s="46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E193" s="24" t="s">
         <v>100</v>
@@ -37198,7 +37190,7 @@
         <v>3</v>
       </c>
       <c r="D194" s="46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E194" s="24" t="s">
         <v>101</v>
@@ -37219,7 +37211,7 @@
         <v>3</v>
       </c>
       <c r="D195" s="46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E195" s="24" t="s">
         <v>102</v>
@@ -37240,7 +37232,7 @@
         <v>3</v>
       </c>
       <c r="D196" s="46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E196" s="24" t="s">
         <v>103</v>
@@ -37261,7 +37253,7 @@
         <v>3</v>
       </c>
       <c r="D197" s="46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E197" s="24" t="s">
         <v>104</v>
@@ -37284,7 +37276,7 @@
         <v>3</v>
       </c>
       <c r="D198" s="46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E198" s="24" t="s">
         <v>105</v>
@@ -37307,7 +37299,7 @@
         <v>3</v>
       </c>
       <c r="D199" s="46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E199" s="24" t="s">
         <v>106</v>
@@ -37330,7 +37322,7 @@
         <v>3</v>
       </c>
       <c r="D200" s="46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E200" s="24" t="s">
         <v>107</v>
@@ -37351,7 +37343,7 @@
         <v>3</v>
       </c>
       <c r="D201" s="46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E201" s="24" t="s">
         <v>108</v>
@@ -37372,7 +37364,7 @@
         <v>3</v>
       </c>
       <c r="D202" s="46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E202" s="24" t="s">
         <v>109</v>
@@ -37393,7 +37385,7 @@
         <v>3</v>
       </c>
       <c r="D203" s="46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E203" s="24" t="s">
         <v>110</v>
@@ -37414,7 +37406,7 @@
         <v>3</v>
       </c>
       <c r="D204" s="46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E204" s="24" t="s">
         <v>111</v>
@@ -37435,7 +37427,7 @@
         <v>3</v>
       </c>
       <c r="D205" s="46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E205" s="24" t="s">
         <v>112</v>
@@ -37456,7 +37448,7 @@
         <v>3</v>
       </c>
       <c r="D206" s="46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E206" s="24" t="s">
         <v>113</v>
@@ -37477,7 +37469,7 @@
         <v>3</v>
       </c>
       <c r="D207" s="46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E207" s="24" t="s">
         <v>114</v>
@@ -37498,7 +37490,7 @@
         <v>3</v>
       </c>
       <c r="D208" s="46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E208" s="24" t="s">
         <v>115</v>
@@ -37508,7 +37500,7 @@
       </c>
       <c r="G208"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" s="24" t="s">
         <v>98</v>
       </c>
@@ -37519,7 +37511,7 @@
         <v>3</v>
       </c>
       <c r="D209" s="46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E209" s="24" t="s">
         <v>116</v>
@@ -37529,7 +37521,7 @@
       </c>
       <c r="G209"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210"/>
       <c r="B210"/>
       <c r="C210"/>
@@ -37537,7 +37529,7 @@
       <c r="F210" s="42"/>
       <c r="G210"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" s="24" t="s">
         <v>97</v>
       </c>
@@ -37558,7 +37550,7 @@
       </c>
       <c r="G211"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" s="24" t="s">
         <v>97</v>
       </c>
@@ -37579,7 +37571,7 @@
       </c>
       <c r="G212"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213"/>
       <c r="B213"/>
       <c r="C213"/>
@@ -37587,9 +37579,9 @@
       <c r="F213" s="25"/>
       <c r="G213"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" s="31" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="B214" s="31" t="s">
         <v>140</v>
@@ -37606,33 +37598,33 @@
         <v>125</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215"/>
       <c r="B215"/>
       <c r="C215"/>
       <c r="D215"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216"/>
       <c r="B216"/>
       <c r="C216"/>
       <c r="D216"/>
       <c r="G216"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217"/>
       <c r="B217"/>
       <c r="C217"/>
       <c r="D217"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218"/>
       <c r="B218"/>
       <c r="C218"/>
       <c r="D218"/>
       <c r="G218"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" s="24" t="s">
         <v>126</v>
       </c>
@@ -37649,24 +37641,25 @@
         <v>125</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220" s="24" t="s">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H220" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="B220" s="24" t="s">
+      <c r="I220" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C220" s="24">
+      <c r="J220" s="24">
         <v>3</v>
       </c>
-      <c r="D220" s="44" t="s">
+      <c r="K220" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="G220" s="24" t="s">
+      <c r="M220" s="36"/>
+      <c r="N220" s="24" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" s="24" t="s">
         <v>130</v>
       </c>
@@ -37683,14 +37676,14 @@
         <v>125</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222"/>
       <c r="B222"/>
       <c r="C222"/>
       <c r="D222" s="44"/>
       <c r="G222"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" s="24" t="s">
         <v>132</v>
       </c>
@@ -37707,7 +37700,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" s="24" t="s">
         <v>134</v>
       </c>

--- a/CE06ISSM/Omaha_Cal_Info_CE06ISSM_00003.xlsx
+++ b/CE06ISSM/Omaha_Cal_Info_CE06ISSM_00003.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="185">
   <si>
     <t>Ref Des</t>
   </si>
@@ -593,6 +593,9 @@
   </si>
   <si>
     <t>CE06ISSM-MFD37-07-ZPLSCC000</t>
+  </si>
+  <si>
+    <t>CE01ISSM-MOPAK</t>
   </si>
 </sst>
 </file>
@@ -1911,8 +1914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A211" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E229" sqref="E229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3727,7 +3730,9 @@
       <c r="C39" s="24">
         <v>3</v>
       </c>
-      <c r="D39" s="27"/>
+      <c r="D39" s="27" t="s">
+        <v>184</v>
+      </c>
       <c r="F39" s="50"/>
       <c r="G39" s="24" t="s">
         <v>125</v>
